--- a/assets/spec/samples/sample.xlsx
+++ b/assets/spec/samples/sample.xlsx
@@ -6427,7 +6427,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>11-17, 5-11</t>
+          <t>5-11, 11-17</t>
         </is>
       </c>
       <c r="I3" s="2" t="n">
@@ -6510,7 +6510,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>11-17, 0-4, Caring responsibilities for an adult</t>
+          <t>0-4, Caring responsibilities for an adult, 11-17</t>
         </is>
       </c>
       <c r="I4" s="2" t="n">
@@ -6588,7 +6588,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0-4, 11-17, Caring responsibilities for an adult, 5-11</t>
+          <t>0-4, 5-11, Caring responsibilities for an adult, 11-17</t>
         </is>
       </c>
       <c r="I5" s="2" t="n">
@@ -6782,7 +6782,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>11-17, 0-4, 5-11</t>
+          <t>0-4, 5-11, 11-17</t>
         </is>
       </c>
       <c r="I8" s="2" t="n">
@@ -6845,7 +6845,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>11-17, 5-11</t>
+          <t>5-11, 11-17</t>
         </is>
       </c>
       <c r="I9" s="2" t="n">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>11-17, 0-4, 5-11</t>
+          <t>0-4, 5-11, 11-17</t>
         </is>
       </c>
       <c r="I15" s="2" t="n">
@@ -7636,7 +7636,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0-4, Caring responsibilities for an adult, 5-11</t>
+          <t>0-4, 5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I20" s="2" t="n">
@@ -8485,7 +8485,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>11-17, Caring responsibilities for an adult, 5-11</t>
+          <t>5-11, Caring responsibilities for an adult, 11-17</t>
         </is>
       </c>
       <c r="I32" s="2" t="n">
@@ -8775,7 +8775,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>11-17, Caring responsibilities for an adult</t>
+          <t>Caring responsibilities for an adult, 11-17</t>
         </is>
       </c>
       <c r="I36" s="2" t="n">
@@ -8906,7 +8906,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>11-17, Caring responsibilities for an adult</t>
+          <t>Caring responsibilities for an adult, 11-17</t>
         </is>
       </c>
       <c r="I38" s="2" t="n">
@@ -9303,7 +9303,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0-4, Caring responsibilities for an adult, 5-11</t>
+          <t>0-4, 5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I44" s="2" t="n">
@@ -9376,7 +9376,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>11-17, Caring responsibilities for an adult, 5-11</t>
+          <t>5-11, Caring responsibilities for an adult, 11-17</t>
         </is>
       </c>
       <c r="I45" s="2" t="n">
@@ -9836,7 +9836,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>11-17, 0-4, Caring responsibilities for an adult</t>
+          <t>0-4, Caring responsibilities for an adult, 11-17</t>
         </is>
       </c>
       <c r="I52" s="2" t="n">
@@ -10464,7 +10464,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>11-17, 0-4</t>
+          <t>0-4, 11-17</t>
         </is>
       </c>
       <c r="I61" s="2" t="n">
@@ -10827,7 +10827,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0-4, 11-17, Caring responsibilities for an adult</t>
+          <t>0-4, Caring responsibilities for an adult, 11-17</t>
         </is>
       </c>
       <c r="I66" s="2" t="n">
@@ -11286,7 +11286,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11</t>
+          <t>5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I73" s="2" t="n">
@@ -11425,7 +11425,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>11-17, 0-4, 5-11</t>
+          <t>0-4, 5-11, 11-17</t>
         </is>
       </c>
       <c r="I75" s="2" t="n">
@@ -11503,7 +11503,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11</t>
+          <t>5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I76" s="2" t="n">
@@ -11584,7 +11584,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>11-17, Caring responsibilities for an adult, 5-11</t>
+          <t>5-11, Caring responsibilities for an adult, 11-17</t>
         </is>
       </c>
       <c r="I77" s="2" t="n">
@@ -11667,7 +11667,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11</t>
+          <t>5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I78" s="2" t="n">
@@ -11993,7 +11993,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0-4, 11-17, Caring responsibilities for an adult</t>
+          <t>0-4, Caring responsibilities for an adult, 11-17</t>
         </is>
       </c>
       <c r="I83" s="2" t="n">
@@ -12283,7 +12283,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>11-17, Caring responsibilities for an adult</t>
+          <t>Caring responsibilities for an adult, 11-17</t>
         </is>
       </c>
       <c r="I87" s="2" t="n">
@@ -12346,7 +12346,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11</t>
+          <t>5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I88" s="2" t="n">
@@ -12488,7 +12488,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>0-4, Caring responsibilities for an adult, 5-11</t>
+          <t>0-4, 5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I90" s="2" t="n">
@@ -12697,7 +12697,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>0-4, 11-17, Caring responsibilities for an adult</t>
+          <t>0-4, Caring responsibilities for an adult, 11-17</t>
         </is>
       </c>
       <c r="I93" s="2" t="n">
@@ -12901,7 +12901,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11</t>
+          <t>5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I96" s="2" t="n">
@@ -13640,7 +13640,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>0-4, Caring responsibilities for an adult, 5-11</t>
+          <t>0-4, 5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I107" s="2" t="n">
@@ -13708,7 +13708,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>11-17, 5-11</t>
+          <t>5-11, 11-17</t>
         </is>
       </c>
       <c r="I108" s="2" t="n">
@@ -13917,7 +13917,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>11-17, 0-4, 5-11</t>
+          <t>0-4, 5-11, 11-17</t>
         </is>
       </c>
       <c r="I111" s="2" t="n">
@@ -14546,7 +14546,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>0-4, 11-17, Caring responsibilities for an adult</t>
+          <t>0-4, Caring responsibilities for an adult, 11-17</t>
         </is>
       </c>
       <c r="I120" s="2" t="n">
@@ -14902,7 +14902,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>11-17, 0-4, Caring responsibilities for an adult, 5-11</t>
+          <t>0-4, 5-11, Caring responsibilities for an adult, 11-17</t>
         </is>
       </c>
       <c r="I125" s="2" t="n">
@@ -14980,7 +14980,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>11-17, 0-4, 5-11</t>
+          <t>0-4, 5-11, 11-17</t>
         </is>
       </c>
       <c r="I126" s="2" t="n">
@@ -15383,7 +15383,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>11-17, 0-4, Caring responsibilities for an adult</t>
+          <t>0-4, Caring responsibilities for an adult, 11-17</t>
         </is>
       </c>
       <c r="I132" s="2" t="n">
@@ -15519,7 +15519,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11</t>
+          <t>5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I134" s="2" t="n">
@@ -16184,7 +16184,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>0-4, Caring responsibilities for an adult, 5-11</t>
+          <t>0-4, 5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I143" s="2" t="n">
@@ -16733,7 +16733,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>11-17, Caring responsibilities for an adult</t>
+          <t>Caring responsibilities for an adult, 11-17</t>
         </is>
       </c>
       <c r="I151" s="2" t="n">
@@ -16950,7 +16950,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>11-17, 0-4, 5-11</t>
+          <t>0-4, 5-11, 11-17</t>
         </is>
       </c>
       <c r="I154" s="2" t="n">
@@ -17096,7 +17096,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>11-17, 0-4, Caring responsibilities for an adult, 5-11</t>
+          <t>0-4, 5-11, Caring responsibilities for an adult, 11-17</t>
         </is>
       </c>
       <c r="I156" s="2" t="n">
@@ -17857,7 +17857,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>11-17, Caring responsibilities for an adult, 5-11</t>
+          <t>5-11, Caring responsibilities for an adult, 11-17</t>
         </is>
       </c>
       <c r="I167" s="2" t="n">
@@ -17993,7 +17993,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>0-4, Caring responsibilities for an adult, 5-11</t>
+          <t>0-4, 5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I169" s="2" t="n">
@@ -18154,7 +18154,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>11-17, 0-4, 5-11</t>
+          <t>0-4, 5-11, 11-17</t>
         </is>
       </c>
       <c r="I171" s="2" t="n">
@@ -18232,7 +18232,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>11-17, Caring responsibilities for an adult, 5-11</t>
+          <t>5-11, Caring responsibilities for an adult, 11-17</t>
         </is>
       </c>
       <c r="I172" s="2" t="n">
@@ -18305,7 +18305,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>0-4, 11-17, Caring responsibilities for an adult, 5-11</t>
+          <t>0-4, 5-11, Caring responsibilities for an adult, 11-17</t>
         </is>
       </c>
       <c r="I173" s="2" t="n">
@@ -18444,7 +18444,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>11-17, Caring responsibilities for an adult, 5-11</t>
+          <t>5-11, Caring responsibilities for an adult, 11-17</t>
         </is>
       </c>
       <c r="I175" s="2" t="n">
@@ -18590,7 +18590,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>11-17, Caring responsibilities for an adult</t>
+          <t>Caring responsibilities for an adult, 11-17</t>
         </is>
       </c>
       <c r="I177" s="2" t="n">
@@ -18673,7 +18673,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>11-17, 5-11</t>
+          <t>5-11, 11-17</t>
         </is>
       </c>
       <c r="I178" s="2" t="n">
@@ -18756,7 +18756,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>0-4, Caring responsibilities for an adult, 5-11</t>
+          <t>0-4, 5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I179" s="2" t="n">
@@ -18902,7 +18902,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>11-17, 0-4, 5-11</t>
+          <t>0-4, 5-11, 11-17</t>
         </is>
       </c>
       <c r="I181" s="2" t="n">
@@ -18975,7 +18975,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>0-4, 11-17, Caring responsibilities for an adult</t>
+          <t>0-4, Caring responsibilities for an adult, 11-17</t>
         </is>
       </c>
       <c r="I182" s="2" t="n">
@@ -19111,7 +19111,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>11-17, 0-4</t>
+          <t>0-4, 11-17</t>
         </is>
       </c>
       <c r="I184" s="2" t="n">
@@ -19179,7 +19179,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>11-17, Caring responsibilities for an adult, 5-11</t>
+          <t>5-11, Caring responsibilities for an adult, 11-17</t>
         </is>
       </c>
       <c r="I185" s="2" t="n">

--- a/assets/spec/samples/sample.xlsx
+++ b/assets/spec/samples/sample.xlsx
@@ -6576,7 +6576,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>11-17, 5-11, 0-4</t>
+          <t>5-11, 0-4, 11-17</t>
         </is>
       </c>
       <c r="I4" s="2" t="n">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11, 0-4</t>
+          <t>5-11, 0-4, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I9" s="2" t="n">
@@ -7243,7 +7243,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11, 11-17</t>
+          <t>5-11, Caring responsibilities for an adult, 11-17</t>
         </is>
       </c>
       <c r="I11" s="2" t="n">
@@ -7805,7 +7805,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11, 0-4</t>
+          <t>5-11, Caring responsibilities for an adult, 0-4</t>
         </is>
       </c>
       <c r="I17" s="2" t="n">
@@ -8553,7 +8553,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11, 0-4</t>
+          <t>5-11, 0-4, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I25" s="2" t="n">
@@ -8827,7 +8827,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11, 0-4</t>
+          <t>5-11, 0-4, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I28" s="2" t="n">
@@ -9325,7 +9325,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11</t>
+          <t>5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I33" s="2" t="n">
@@ -9907,7 +9907,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11, 0-4</t>
+          <t>5-11, Caring responsibilities for an adult, 0-4</t>
         </is>
       </c>
       <c r="I39" s="2" t="n">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11</t>
+          <t>5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I40" s="2" t="n">
@@ -10195,7 +10195,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11, 0-4</t>
+          <t>5-11, 0-4, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I42" s="2" t="n">
@@ -10668,7 +10668,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11</t>
+          <t>5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I47" s="2" t="n">
@@ -10857,7 +10857,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11, 0-4</t>
+          <t>5-11, Caring responsibilities for an adult, 0-4</t>
         </is>
       </c>
       <c r="I49" s="2" t="n">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11, 11-17</t>
+          <t>5-11, 11-17, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I63" s="2" t="n">
@@ -12888,7 +12888,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11, 0-4</t>
+          <t>5-11, 0-4, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I71" s="2" t="n">
@@ -12991,7 +12991,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>11-17, Caring responsibilities for an adult, 0-4</t>
+          <t>Caring responsibilities for an adult, 0-4, 11-17</t>
         </is>
       </c>
       <c r="I72" s="2" t="n">
@@ -13868,7 +13868,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11</t>
+          <t>5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I81" s="2" t="n">
@@ -14519,7 +14519,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11</t>
+          <t>5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I88" s="2" t="n">
@@ -14725,7 +14725,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>0-4, 5-11, 11-17</t>
+          <t>5-11, 0-4, 11-17</t>
         </is>
       </c>
       <c r="I90" s="2" t="n">
@@ -14821,7 +14821,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>11-17, Caring responsibilities for an adult, 0-4</t>
+          <t>Caring responsibilities for an adult, 0-4, 11-17</t>
         </is>
       </c>
       <c r="I91" s="2" t="n">
@@ -14922,7 +14922,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11</t>
+          <t>5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I92" s="2" t="n">
@@ -19556,7 +19556,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>11-17, Caring responsibilities for an adult, 0-4</t>
+          <t>Caring responsibilities for an adult, 0-4, 11-17</t>
         </is>
       </c>
       <c r="I141" s="2" t="n">
@@ -20507,7 +20507,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>0-4, 11-17, 5-11</t>
+          <t>5-11, 0-4, 11-17</t>
         </is>
       </c>
       <c r="I151" s="2" t="n">
@@ -20789,7 +20789,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11</t>
+          <t>5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I154" s="2" t="n">
@@ -20887,7 +20887,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11, 11-17</t>
+          <t>5-11, 11-17, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I155" s="2" t="n">
@@ -21086,7 +21086,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11, 11-17</t>
+          <t>5-11, Caring responsibilities for an adult, 11-17</t>
         </is>
       </c>
       <c r="I157" s="2" t="n">
@@ -21174,7 +21174,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11, 11-17</t>
+          <t>5-11, 11-17, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I158" s="2" t="n">
@@ -22044,7 +22044,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11, 0-4</t>
+          <t>5-11, Caring responsibilities for an adult, 0-4</t>
         </is>
       </c>
       <c r="I167" s="2" t="n">
@@ -22887,7 +22887,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11, 11-17</t>
+          <t>5-11, Caring responsibilities for an adult, 11-17</t>
         </is>
       </c>
       <c r="I176" s="2" t="n">
@@ -23447,7 +23447,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>11-17, Caring responsibilities for an adult, 5-11, 0-4</t>
+          <t>5-11, Caring responsibilities for an adult, 0-4, 11-17</t>
         </is>
       </c>
       <c r="I182" s="2" t="n">
@@ -23637,7 +23637,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11, 11-17</t>
+          <t>5-11, Caring responsibilities for an adult, 11-17</t>
         </is>
       </c>
       <c r="I184" s="2" t="n">
@@ -23736,7 +23736,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11, 0-4</t>
+          <t>5-11, 0-4, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I185" s="2" t="n">

--- a/assets/spec/samples/sample.xlsx
+++ b/assets/spec/samples/sample.xlsx
@@ -7453,7 +7453,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>5-11, Caring responsibilities for an adult</t>
+          <t>Caring responsibilities for an adult, 5-11</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -7553,7 +7553,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>5-11, 11-17, Caring responsibilities for an adult, 0-4</t>
+          <t>Caring responsibilities for an adult, 5-11, 0-4, 11-17</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>11-17, 5-11, Caring responsibilities for an adult, 0-4</t>
+          <t>Caring responsibilities for an adult, 5-11, 0-4, 11-17</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -7954,7 +7954,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>5-11, Caring responsibilities for an adult</t>
+          <t>Caring responsibilities for an adult, 5-11</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -8154,7 +8154,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>5-11, 11-17, Caring responsibilities for an adult, 0-4</t>
+          <t>Caring responsibilities for an adult, 5-11, 0-4, 11-17</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -8554,7 +8554,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>5-11, Caring responsibilities for an adult, 0-4</t>
+          <t>Caring responsibilities for an adult, 5-11, 0-4</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -9495,7 +9495,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>5-11, Caring responsibilities for an adult, 0-4</t>
+          <t>Caring responsibilities for an adult, 5-11, 0-4</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -9990,7 +9990,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>11-17, Caring responsibilities for an adult, 0-4</t>
+          <t>Caring responsibilities for an adult, 0-4, 11-17</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -10285,7 +10285,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>5-11, 11-17, Caring responsibilities for an adult, 0-4</t>
+          <t>Caring responsibilities for an adult, 5-11, 0-4, 11-17</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -11700,7 +11700,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>5-11, 11-17, Caring responsibilities for an adult, 0-4</t>
+          <t>Caring responsibilities for an adult, 5-11, 0-4, 11-17</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -11889,7 +11889,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>11-17, Caring responsibilities for an adult, 0-4</t>
+          <t>Caring responsibilities for an adult, 0-4, 11-17</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -12169,7 +12169,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>5-11, Caring responsibilities for an adult, 0-4</t>
+          <t>Caring responsibilities for an adult, 5-11, 0-4</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -12272,7 +12272,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>11-17, 5-11, Caring responsibilities for an adult, 0-4</t>
+          <t>Caring responsibilities for an adult, 5-11, 0-4, 11-17</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -12557,7 +12557,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>11-17, 0-4</t>
+          <t>0-4, 11-17</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -12960,7 +12960,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>11-17, Caring responsibilities for an adult, 0-4</t>
+          <t>Caring responsibilities for an adult, 0-4, 11-17</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -13065,7 +13065,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>11-17, 5-11, 0-4</t>
+          <t>5-11, 0-4, 11-17</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -13265,7 +13265,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>5-11, Caring responsibilities for an adult</t>
+          <t>Caring responsibilities for an adult, 5-11</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -13955,7 +13955,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>11-17, 5-11</t>
+          <t>5-11, 11-17</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -14446,7 +14446,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>5-11, 11-17, Caring responsibilities for an adult, 0-4</t>
+          <t>Caring responsibilities for an adult, 5-11, 0-4, 11-17</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -14551,7 +14551,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>5-11, 11-17, 0-4</t>
+          <t>5-11, 0-4, 11-17</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -14656,7 +14656,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>11-17, Caring responsibilities for an adult, 0-4</t>
+          <t>Caring responsibilities for an adult, 0-4, 11-17</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -14938,7 +14938,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>5-11, 11-17, 0-4</t>
+          <t>5-11, 0-4, 11-17</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -15322,7 +15322,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>11-17, 0-4</t>
+          <t>0-4, 11-17</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -15513,7 +15513,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>5-11, Caring responsibilities for an adult, 0-4</t>
+          <t>Caring responsibilities for an adult, 5-11, 0-4</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -15728,7 +15728,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>5-11, Caring responsibilities for an adult, 0-4</t>
+          <t>Caring responsibilities for an adult, 5-11, 0-4</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -17086,7 +17086,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>11-17, Caring responsibilities for an adult</t>
+          <t>Caring responsibilities for an adult, 11-17</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -17981,7 +17981,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>11-17, 0-4</t>
+          <t>0-4, 11-17</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -18274,7 +18274,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>11-17, Caring responsibilities for an adult, 0-4</t>
+          <t>Caring responsibilities for an adult, 0-4, 11-17</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -18972,7 +18972,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>5-11, Caring responsibilities for an adult</t>
+          <t>Caring responsibilities for an adult, 5-11</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -19167,7 +19167,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>11-17, 0-4</t>
+          <t>0-4, 11-17</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -19272,7 +19272,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>5-11, Caring responsibilities for an adult</t>
+          <t>Caring responsibilities for an adult, 5-11</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -19467,7 +19467,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>5-11, Caring responsibilities for an adult, 0-4</t>
+          <t>Caring responsibilities for an adult, 5-11, 0-4</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -20816,7 +20816,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>11-17, 0-4</t>
+          <t>0-4, 11-17</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -20916,7 +20916,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>5-11, Caring responsibilities for an adult, 0-4</t>
+          <t>Caring responsibilities for an adult, 5-11, 0-4</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -21114,7 +21114,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>5-11, Caring responsibilities for an adult</t>
+          <t>Caring responsibilities for an adult, 5-11</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -21485,7 +21485,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>5-11, 11-17, 0-4</t>
+          <t>5-11, 0-4, 11-17</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -21888,7 +21888,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>11-17, 5-11</t>
+          <t>5-11, 11-17</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -21985,7 +21985,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>5-11, 11-17, 0-4</t>
+          <t>5-11, 0-4, 11-17</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -22765,7 +22765,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>11-17, 0-4</t>
+          <t>0-4, 11-17</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -23064,7 +23064,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>11-17, 0-4</t>
+          <t>0-4, 11-17</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -23460,7 +23460,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>11-17, 0-4</t>
+          <t>0-4, 11-17</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -23647,7 +23647,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>11-17, Caring responsibilities for an adult, 0-4</t>
+          <t>Caring responsibilities for an adult, 0-4, 11-17</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -24138,7 +24138,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>5-11, Caring responsibilities for an adult, 0-4</t>
+          <t>Caring responsibilities for an adult, 5-11, 0-4</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -24517,7 +24517,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>5-11, Caring responsibilities for an adult, 0-4</t>
+          <t>Caring responsibilities for an adult, 5-11, 0-4</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -24625,7 +24625,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>5-11, Caring responsibilities for an adult, 0-4</t>
+          <t>Caring responsibilities for an adult, 5-11, 0-4</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -24725,7 +24725,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>5-11, 11-17, 0-4</t>
+          <t>5-11, 0-4, 11-17</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -25123,7 +25123,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>11-17, Caring responsibilities for an adult</t>
+          <t>Caring responsibilities for an adult, 11-17</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">

--- a/assets/spec/samples/sample.xlsx
+++ b/assets/spec/samples/sample.xlsx
@@ -7553,7 +7553,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11, 0-4, 11-17</t>
+          <t>11-17, Caring responsibilities for an adult, 0-4, 5-11</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11, 0-4, 11-17</t>
+          <t>11-17, Caring responsibilities for an adult, 0-4, 5-11</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -8154,7 +8154,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11, 0-4, 11-17</t>
+          <t>11-17, Caring responsibilities for an adult, 0-4, 5-11</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -8554,7 +8554,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11, 0-4</t>
+          <t>Caring responsibilities for an adult, 0-4, 5-11</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -9495,7 +9495,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11, 0-4</t>
+          <t>Caring responsibilities for an adult, 0-4, 5-11</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -9990,7 +9990,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 0-4, 11-17</t>
+          <t>11-17, Caring responsibilities for an adult, 0-4</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -10285,7 +10285,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11, 0-4, 11-17</t>
+          <t>11-17, Caring responsibilities for an adult, 0-4, 5-11</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -11700,7 +11700,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11, 0-4, 11-17</t>
+          <t>11-17, Caring responsibilities for an adult, 0-4, 5-11</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -11889,7 +11889,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 0-4, 11-17</t>
+          <t>11-17, Caring responsibilities for an adult, 0-4</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -12169,7 +12169,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11, 0-4</t>
+          <t>Caring responsibilities for an adult, 0-4, 5-11</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -12272,7 +12272,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11, 0-4, 11-17</t>
+          <t>11-17, Caring responsibilities for an adult, 0-4, 5-11</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -12557,7 +12557,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0-4, 11-17</t>
+          <t>11-17, 0-4</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -12960,7 +12960,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 0-4, 11-17</t>
+          <t>11-17, Caring responsibilities for an adult, 0-4</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -13065,7 +13065,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>5-11, 0-4, 11-17</t>
+          <t>11-17, 0-4, 5-11</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -13955,7 +13955,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>5-11, 11-17</t>
+          <t>11-17, 5-11</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -14161,7 +14161,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>5-11, 11-17</t>
+          <t>11-17, 5-11</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -14446,7 +14446,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11, 0-4, 11-17</t>
+          <t>11-17, Caring responsibilities for an adult, 0-4, 5-11</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -14551,7 +14551,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>5-11, 0-4, 11-17</t>
+          <t>11-17, 0-4, 5-11</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -14656,7 +14656,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 0-4, 11-17</t>
+          <t>11-17, Caring responsibilities for an adult, 0-4</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -14938,7 +14938,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>5-11, 0-4, 11-17</t>
+          <t>11-17, 0-4, 5-11</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -15322,7 +15322,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>0-4, 11-17</t>
+          <t>11-17, 0-4</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -15513,7 +15513,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11, 0-4</t>
+          <t>Caring responsibilities for an adult, 0-4, 5-11</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -15728,7 +15728,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11, 0-4</t>
+          <t>Caring responsibilities for an adult, 0-4, 5-11</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -17086,7 +17086,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 11-17</t>
+          <t>11-17, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -17793,7 +17793,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>5-11, 0-4</t>
+          <t>0-4, 5-11</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -17981,7 +17981,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>0-4, 11-17</t>
+          <t>11-17, 0-4</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -18274,7 +18274,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 0-4, 11-17</t>
+          <t>11-17, Caring responsibilities for an adult, 0-4</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -19167,7 +19167,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>0-4, 11-17</t>
+          <t>11-17, 0-4</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -19467,7 +19467,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11, 0-4</t>
+          <t>Caring responsibilities for an adult, 0-4, 5-11</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -19942,7 +19942,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>5-11, 0-4</t>
+          <t>0-4, 5-11</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -20816,7 +20816,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>0-4, 11-17</t>
+          <t>11-17, 0-4</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -20916,7 +20916,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11, 0-4</t>
+          <t>Caring responsibilities for an adult, 0-4, 5-11</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -21485,7 +21485,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>5-11, 0-4, 11-17</t>
+          <t>11-17, 0-4, 5-11</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -21888,7 +21888,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>5-11, 11-17</t>
+          <t>11-17, 5-11</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -21985,7 +21985,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>5-11, 0-4, 11-17</t>
+          <t>11-17, 0-4, 5-11</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -22765,7 +22765,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>0-4, 11-17</t>
+          <t>11-17, 0-4</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -22964,7 +22964,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>5-11, 0-4</t>
+          <t>0-4, 5-11</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -23064,7 +23064,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>0-4, 11-17</t>
+          <t>11-17, 0-4</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -23460,7 +23460,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>0-4, 11-17</t>
+          <t>11-17, 0-4</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -23647,7 +23647,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 0-4, 11-17</t>
+          <t>11-17, Caring responsibilities for an adult, 0-4</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -24138,7 +24138,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11, 0-4</t>
+          <t>Caring responsibilities for an adult, 0-4, 5-11</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -24517,7 +24517,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11, 0-4</t>
+          <t>Caring responsibilities for an adult, 0-4, 5-11</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -24625,7 +24625,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11, 0-4</t>
+          <t>Caring responsibilities for an adult, 0-4, 5-11</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -24725,7 +24725,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>5-11, 0-4, 11-17</t>
+          <t>11-17, 0-4, 5-11</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -25123,7 +25123,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 11-17</t>
+          <t>11-17, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">

--- a/assets/spec/samples/sample.xlsx
+++ b/assets/spec/samples/sample.xlsx
@@ -7553,7 +7553,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>11-17, Caring responsibilities for an adult, 0-4, 5-11</t>
+          <t>Caring responsibilities for an adult, 0-4, 11-17, 5-11</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>11-17, Caring responsibilities for an adult, 0-4, 5-11</t>
+          <t>Caring responsibilities for an adult, 0-4, 11-17, 5-11</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -8154,7 +8154,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>11-17, Caring responsibilities for an adult, 0-4, 5-11</t>
+          <t>Caring responsibilities for an adult, 0-4, 11-17, 5-11</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -9990,7 +9990,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>11-17, Caring responsibilities for an adult, 0-4</t>
+          <t>Caring responsibilities for an adult, 0-4, 11-17</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -10285,7 +10285,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>11-17, Caring responsibilities for an adult, 0-4, 5-11</t>
+          <t>Caring responsibilities for an adult, 0-4, 11-17, 5-11</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -11700,7 +11700,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>11-17, Caring responsibilities for an adult, 0-4, 5-11</t>
+          <t>Caring responsibilities for an adult, 0-4, 11-17, 5-11</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -11889,7 +11889,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>11-17, Caring responsibilities for an adult, 0-4</t>
+          <t>Caring responsibilities for an adult, 0-4, 11-17</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -12272,7 +12272,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>11-17, Caring responsibilities for an adult, 0-4, 5-11</t>
+          <t>Caring responsibilities for an adult, 0-4, 11-17, 5-11</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -12557,7 +12557,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>11-17, 0-4</t>
+          <t>0-4, 11-17</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -12960,7 +12960,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>11-17, Caring responsibilities for an adult, 0-4</t>
+          <t>Caring responsibilities for an adult, 0-4, 11-17</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -13065,7 +13065,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>11-17, 0-4, 5-11</t>
+          <t>0-4, 11-17, 5-11</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -14446,7 +14446,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>11-17, Caring responsibilities for an adult, 0-4, 5-11</t>
+          <t>Caring responsibilities for an adult, 0-4, 11-17, 5-11</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -14551,7 +14551,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>11-17, 0-4, 5-11</t>
+          <t>0-4, 11-17, 5-11</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -14656,7 +14656,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>11-17, Caring responsibilities for an adult, 0-4</t>
+          <t>Caring responsibilities for an adult, 0-4, 11-17</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -14938,7 +14938,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>11-17, 0-4, 5-11</t>
+          <t>0-4, 11-17, 5-11</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -15322,7 +15322,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>11-17, 0-4</t>
+          <t>0-4, 11-17</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -17086,7 +17086,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>11-17, Caring responsibilities for an adult</t>
+          <t>Caring responsibilities for an adult, 11-17</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -17981,7 +17981,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>11-17, 0-4</t>
+          <t>0-4, 11-17</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -18274,7 +18274,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>11-17, Caring responsibilities for an adult, 0-4</t>
+          <t>Caring responsibilities for an adult, 0-4, 11-17</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -19167,7 +19167,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>11-17, 0-4</t>
+          <t>0-4, 11-17</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -20816,7 +20816,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>11-17, 0-4</t>
+          <t>0-4, 11-17</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -21485,7 +21485,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>11-17, 0-4, 5-11</t>
+          <t>0-4, 11-17, 5-11</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -21985,7 +21985,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>11-17, 0-4, 5-11</t>
+          <t>0-4, 11-17, 5-11</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -22765,7 +22765,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>11-17, 0-4</t>
+          <t>0-4, 11-17</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -23064,7 +23064,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>11-17, 0-4</t>
+          <t>0-4, 11-17</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -23460,7 +23460,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>11-17, 0-4</t>
+          <t>0-4, 11-17</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -23647,7 +23647,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>11-17, Caring responsibilities for an adult, 0-4</t>
+          <t>Caring responsibilities for an adult, 0-4, 11-17</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -24725,7 +24725,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>11-17, 0-4, 5-11</t>
+          <t>0-4, 11-17, 5-11</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -25123,7 +25123,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>11-17, Caring responsibilities for an adult</t>
+          <t>Caring responsibilities for an adult, 11-17</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">

--- a/assets/spec/samples/sample.xlsx
+++ b/assets/spec/samples/sample.xlsx
@@ -7453,7 +7453,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11</t>
+          <t>5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -7553,7 +7553,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 0-4, 11-17, 5-11</t>
+          <t>5-11, 11-17, 0-4, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 0-4, 11-17, 5-11</t>
+          <t>5-11, 11-17, 0-4, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -7954,7 +7954,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11</t>
+          <t>5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -8154,7 +8154,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 0-4, 11-17, 5-11</t>
+          <t>5-11, 11-17, 0-4, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -8554,7 +8554,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 0-4, 5-11</t>
+          <t>5-11, 0-4, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -9495,7 +9495,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 0-4, 5-11</t>
+          <t>5-11, 0-4, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -9990,7 +9990,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 0-4, 11-17</t>
+          <t>11-17, 0-4, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -10285,7 +10285,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 0-4, 11-17, 5-11</t>
+          <t>5-11, 11-17, 0-4, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -11700,7 +11700,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 0-4, 11-17, 5-11</t>
+          <t>5-11, 11-17, 0-4, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -11889,7 +11889,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 0-4, 11-17</t>
+          <t>11-17, 0-4, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -12169,7 +12169,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 0-4, 5-11</t>
+          <t>5-11, 0-4, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -12272,7 +12272,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 0-4, 11-17, 5-11</t>
+          <t>5-11, 11-17, 0-4, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -12557,7 +12557,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0-4, 11-17</t>
+          <t>11-17, 0-4</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -12960,7 +12960,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 0-4, 11-17</t>
+          <t>11-17, 0-4, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -13065,7 +13065,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0-4, 11-17, 5-11</t>
+          <t>5-11, 11-17, 0-4</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -13172,7 +13172,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 0-4</t>
+          <t>0-4, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -13265,7 +13265,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11</t>
+          <t>5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -13955,7 +13955,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>11-17, 5-11</t>
+          <t>5-11, 11-17</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -14161,7 +14161,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>11-17, 5-11</t>
+          <t>5-11, 11-17</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -14446,7 +14446,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 0-4, 11-17, 5-11</t>
+          <t>5-11, 11-17, 0-4, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -14551,7 +14551,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>0-4, 11-17, 5-11</t>
+          <t>5-11, 11-17, 0-4</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -14656,7 +14656,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 0-4, 11-17</t>
+          <t>11-17, 0-4, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -14938,7 +14938,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0-4, 11-17, 5-11</t>
+          <t>5-11, 11-17, 0-4</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -15322,7 +15322,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>0-4, 11-17</t>
+          <t>11-17, 0-4</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -15513,7 +15513,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 0-4, 5-11</t>
+          <t>5-11, 0-4, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -15728,7 +15728,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 0-4, 5-11</t>
+          <t>5-11, 0-4, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -17086,7 +17086,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 11-17</t>
+          <t>11-17, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -17590,7 +17590,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 0-4</t>
+          <t>0-4, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -17793,7 +17793,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>0-4, 5-11</t>
+          <t>5-11, 0-4</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -17981,7 +17981,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>0-4, 11-17</t>
+          <t>11-17, 0-4</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -18274,7 +18274,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 0-4, 11-17</t>
+          <t>11-17, 0-4, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -18972,7 +18972,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11</t>
+          <t>5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -19167,7 +19167,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>0-4, 11-17</t>
+          <t>11-17, 0-4</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -19272,7 +19272,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11</t>
+          <t>5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -19467,7 +19467,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 0-4, 5-11</t>
+          <t>5-11, 0-4, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -19942,7 +19942,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>0-4, 5-11</t>
+          <t>5-11, 0-4</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -20816,7 +20816,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>0-4, 11-17</t>
+          <t>11-17, 0-4</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -20916,7 +20916,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 0-4, 5-11</t>
+          <t>5-11, 0-4, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -21114,7 +21114,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 5-11</t>
+          <t>5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -21485,7 +21485,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>0-4, 11-17, 5-11</t>
+          <t>5-11, 11-17, 0-4</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -21888,7 +21888,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>11-17, 5-11</t>
+          <t>5-11, 11-17</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -21985,7 +21985,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>0-4, 11-17, 5-11</t>
+          <t>5-11, 11-17, 0-4</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -22765,7 +22765,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>0-4, 11-17</t>
+          <t>11-17, 0-4</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -22964,7 +22964,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>0-4, 5-11</t>
+          <t>5-11, 0-4</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -23064,7 +23064,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>0-4, 11-17</t>
+          <t>11-17, 0-4</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -23460,7 +23460,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>0-4, 11-17</t>
+          <t>11-17, 0-4</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -23647,7 +23647,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 0-4, 11-17</t>
+          <t>11-17, 0-4, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -24138,7 +24138,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 0-4, 5-11</t>
+          <t>5-11, 0-4, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -24517,7 +24517,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 0-4, 5-11</t>
+          <t>5-11, 0-4, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -24625,7 +24625,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 0-4, 5-11</t>
+          <t>5-11, 0-4, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -24725,7 +24725,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>0-4, 11-17, 5-11</t>
+          <t>5-11, 11-17, 0-4</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -25123,7 +25123,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 11-17</t>
+          <t>11-17, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">

--- a/assets/spec/samples/sample.xlsx
+++ b/assets/spec/samples/sample.xlsx
@@ -7553,7 +7553,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>5-11, 11-17, 0-4, Caring responsibilities for an adult</t>
+          <t>11-17, 0-4, 5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>5-11, 11-17, 0-4, Caring responsibilities for an adult</t>
+          <t>11-17, 0-4, 5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -8154,7 +8154,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>5-11, 11-17, 0-4, Caring responsibilities for an adult</t>
+          <t>11-17, 0-4, 5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -8554,7 +8554,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>5-11, 0-4, Caring responsibilities for an adult</t>
+          <t>0-4, 5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -9495,7 +9495,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>5-11, 0-4, Caring responsibilities for an adult</t>
+          <t>0-4, 5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -10285,7 +10285,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>5-11, 11-17, 0-4, Caring responsibilities for an adult</t>
+          <t>11-17, 0-4, 5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -11700,7 +11700,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>5-11, 11-17, 0-4, Caring responsibilities for an adult</t>
+          <t>11-17, 0-4, 5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -12169,7 +12169,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>5-11, 0-4, Caring responsibilities for an adult</t>
+          <t>0-4, 5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -12272,7 +12272,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>5-11, 11-17, 0-4, Caring responsibilities for an adult</t>
+          <t>11-17, 0-4, 5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -13065,7 +13065,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>5-11, 11-17, 0-4</t>
+          <t>11-17, 0-4, 5-11</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -13955,7 +13955,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>5-11, 11-17</t>
+          <t>11-17, 5-11</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -14161,7 +14161,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>5-11, 11-17</t>
+          <t>11-17, 5-11</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -14446,7 +14446,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>5-11, 11-17, 0-4, Caring responsibilities for an adult</t>
+          <t>11-17, 0-4, 5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -14551,7 +14551,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>5-11, 11-17, 0-4</t>
+          <t>11-17, 0-4, 5-11</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -14938,7 +14938,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>5-11, 11-17, 0-4</t>
+          <t>11-17, 0-4, 5-11</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -15513,7 +15513,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>5-11, 0-4, Caring responsibilities for an adult</t>
+          <t>0-4, 5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -15728,7 +15728,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>5-11, 0-4, Caring responsibilities for an adult</t>
+          <t>0-4, 5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -17793,7 +17793,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>5-11, 0-4</t>
+          <t>0-4, 5-11</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -19467,7 +19467,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>5-11, 0-4, Caring responsibilities for an adult</t>
+          <t>0-4, 5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -19942,7 +19942,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>5-11, 0-4</t>
+          <t>0-4, 5-11</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -20916,7 +20916,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>5-11, 0-4, Caring responsibilities for an adult</t>
+          <t>0-4, 5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -21485,7 +21485,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>5-11, 11-17, 0-4</t>
+          <t>11-17, 0-4, 5-11</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -21888,7 +21888,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>5-11, 11-17</t>
+          <t>11-17, 5-11</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -21985,7 +21985,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>5-11, 11-17, 0-4</t>
+          <t>11-17, 0-4, 5-11</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -22964,7 +22964,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>5-11, 0-4</t>
+          <t>0-4, 5-11</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -24138,7 +24138,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>5-11, 0-4, Caring responsibilities for an adult</t>
+          <t>0-4, 5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -24517,7 +24517,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>5-11, 0-4, Caring responsibilities for an adult</t>
+          <t>0-4, 5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -24625,7 +24625,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>5-11, 0-4, Caring responsibilities for an adult</t>
+          <t>0-4, 5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -24725,7 +24725,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>5-11, 11-17, 0-4</t>
+          <t>11-17, 0-4, 5-11</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">

--- a/assets/spec/samples/sample.xlsx
+++ b/assets/spec/samples/sample.xlsx
@@ -7553,7 +7553,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>11-17, 0-4, 5-11, Caring responsibilities for an adult</t>
+          <t>5-11, Caring responsibilities for an adult, 11-17, 0-4</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>11-17, 0-4, 5-11, Caring responsibilities for an adult</t>
+          <t>5-11, Caring responsibilities for an adult, 11-17, 0-4</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -8154,7 +8154,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>11-17, 0-4, 5-11, Caring responsibilities for an adult</t>
+          <t>5-11, Caring responsibilities for an adult, 11-17, 0-4</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -8554,7 +8554,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0-4, 5-11, Caring responsibilities for an adult</t>
+          <t>5-11, Caring responsibilities for an adult, 0-4</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -9495,7 +9495,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0-4, 5-11, Caring responsibilities for an adult</t>
+          <t>5-11, Caring responsibilities for an adult, 0-4</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -9990,7 +9990,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>11-17, 0-4, Caring responsibilities for an adult</t>
+          <t>Caring responsibilities for an adult, 11-17, 0-4</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -10285,7 +10285,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>11-17, 0-4, 5-11, Caring responsibilities for an adult</t>
+          <t>5-11, Caring responsibilities for an adult, 11-17, 0-4</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -11700,7 +11700,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>11-17, 0-4, 5-11, Caring responsibilities for an adult</t>
+          <t>5-11, Caring responsibilities for an adult, 11-17, 0-4</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -11889,7 +11889,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>11-17, 0-4, Caring responsibilities for an adult</t>
+          <t>Caring responsibilities for an adult, 11-17, 0-4</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -12169,7 +12169,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0-4, 5-11, Caring responsibilities for an adult</t>
+          <t>5-11, Caring responsibilities for an adult, 0-4</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -12272,7 +12272,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>11-17, 0-4, 5-11, Caring responsibilities for an adult</t>
+          <t>5-11, Caring responsibilities for an adult, 11-17, 0-4</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -12960,7 +12960,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>11-17, 0-4, Caring responsibilities for an adult</t>
+          <t>Caring responsibilities for an adult, 11-17, 0-4</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -13065,7 +13065,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>11-17, 0-4, 5-11</t>
+          <t>5-11, 11-17, 0-4</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -13172,7 +13172,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0-4, Caring responsibilities for an adult</t>
+          <t>Caring responsibilities for an adult, 0-4</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -13955,7 +13955,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>11-17, 5-11</t>
+          <t>5-11, 11-17</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -14161,7 +14161,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>11-17, 5-11</t>
+          <t>5-11, 11-17</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -14446,7 +14446,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>11-17, 0-4, 5-11, Caring responsibilities for an adult</t>
+          <t>5-11, Caring responsibilities for an adult, 11-17, 0-4</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -14551,7 +14551,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>11-17, 0-4, 5-11</t>
+          <t>5-11, 11-17, 0-4</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -14656,7 +14656,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>11-17, 0-4, Caring responsibilities for an adult</t>
+          <t>Caring responsibilities for an adult, 11-17, 0-4</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -14938,7 +14938,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>11-17, 0-4, 5-11</t>
+          <t>5-11, 11-17, 0-4</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -15513,7 +15513,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>0-4, 5-11, Caring responsibilities for an adult</t>
+          <t>5-11, Caring responsibilities for an adult, 0-4</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -15728,7 +15728,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>0-4, 5-11, Caring responsibilities for an adult</t>
+          <t>5-11, Caring responsibilities for an adult, 0-4</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -17086,7 +17086,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>11-17, Caring responsibilities for an adult</t>
+          <t>Caring responsibilities for an adult, 11-17</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -17590,7 +17590,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>0-4, Caring responsibilities for an adult</t>
+          <t>Caring responsibilities for an adult, 0-4</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -17793,7 +17793,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>0-4, 5-11</t>
+          <t>5-11, 0-4</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -18274,7 +18274,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>11-17, 0-4, Caring responsibilities for an adult</t>
+          <t>Caring responsibilities for an adult, 11-17, 0-4</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -19467,7 +19467,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>0-4, 5-11, Caring responsibilities for an adult</t>
+          <t>5-11, Caring responsibilities for an adult, 0-4</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -19942,7 +19942,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>0-4, 5-11</t>
+          <t>5-11, 0-4</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -20916,7 +20916,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>0-4, 5-11, Caring responsibilities for an adult</t>
+          <t>5-11, Caring responsibilities for an adult, 0-4</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -21485,7 +21485,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>11-17, 0-4, 5-11</t>
+          <t>5-11, 11-17, 0-4</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -21888,7 +21888,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>11-17, 5-11</t>
+          <t>5-11, 11-17</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -21985,7 +21985,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>11-17, 0-4, 5-11</t>
+          <t>5-11, 11-17, 0-4</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -22964,7 +22964,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>0-4, 5-11</t>
+          <t>5-11, 0-4</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -23647,7 +23647,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>11-17, 0-4, Caring responsibilities for an adult</t>
+          <t>Caring responsibilities for an adult, 11-17, 0-4</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -24138,7 +24138,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>0-4, 5-11, Caring responsibilities for an adult</t>
+          <t>5-11, Caring responsibilities for an adult, 0-4</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -24517,7 +24517,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>0-4, 5-11, Caring responsibilities for an adult</t>
+          <t>5-11, Caring responsibilities for an adult, 0-4</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -24625,7 +24625,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>0-4, 5-11, Caring responsibilities for an adult</t>
+          <t>5-11, Caring responsibilities for an adult, 0-4</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -24725,7 +24725,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>11-17, 0-4, 5-11</t>
+          <t>5-11, 11-17, 0-4</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -25123,7 +25123,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>11-17, Caring responsibilities for an adult</t>
+          <t>Caring responsibilities for an adult, 11-17</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">

--- a/assets/spec/samples/sample.xlsx
+++ b/assets/spec/samples/sample.xlsx
@@ -7553,7 +7553,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>5-11, Caring responsibilities for an adult, 11-17, 0-4</t>
+          <t>5-11, Caring responsibilities for an adult, 0-4, 11-17</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>5-11, Caring responsibilities for an adult, 11-17, 0-4</t>
+          <t>5-11, Caring responsibilities for an adult, 0-4, 11-17</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -8154,7 +8154,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>5-11, Caring responsibilities for an adult, 11-17, 0-4</t>
+          <t>5-11, Caring responsibilities for an adult, 0-4, 11-17</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -14446,7 +14446,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>5-11, Caring responsibilities for an adult, 11-17, 0-4</t>
+          <t>5-11, Caring responsibilities for an adult, 0-4, 11-17</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -21485,7 +21485,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>5-11, 11-17, 0-4</t>
+          <t>5-11, 0-4, 11-17</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -23064,7 +23064,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>11-17, 0-4</t>
+          <t>0-4, 11-17</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -23647,7 +23647,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 11-17, 0-4</t>
+          <t>Caring responsibilities for an adult, 0-4, 11-17</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">

--- a/assets/spec/samples/sample.xlsx
+++ b/assets/spec/samples/sample.xlsx
@@ -7978,7 +7978,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0-4, 5-11, Caring responsibilities for an adult, 11-17</t>
+          <t>0-4, 11-17, 5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -9031,7 +9031,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0-4, 5-11, 11-17, Caring responsibilities for an adult</t>
+          <t>0-4, 11-17, 5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -9503,7 +9503,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0-4, 5-11, Caring responsibilities for an adult, 11-17</t>
+          <t>0-4, 11-17, 5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -10271,7 +10271,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>5-11, 11-17, Caring responsibilities for an adult</t>
+          <t>11-17, 5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -10567,7 +10567,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0-4, 5-11, 11-17, Caring responsibilities for an adult</t>
+          <t>0-4, 11-17, 5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -11501,7 +11501,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0-4, 5-11, 11-17</t>
+          <t>0-4, 11-17, 5-11</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -11691,7 +11691,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>5-11, 11-17</t>
+          <t>11-17, 5-11</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -12152,7 +12152,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0-4, Caring responsibilities for an adult, 11-17</t>
+          <t>0-4, 11-17, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>0-4, 5-11, 11-17, Caring responsibilities for an adult</t>
+          <t>0-4, 11-17, 5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -13635,7 +13635,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>0-4, 5-11, 11-17</t>
+          <t>0-4, 11-17, 5-11</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -13725,7 +13725,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0-4, 5-11, 11-17, Caring responsibilities for an adult</t>
+          <t>0-4, 11-17, 5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -13830,7 +13830,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>0-4, 5-11, Caring responsibilities for an adult, 11-17</t>
+          <t>0-4, 11-17, 5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -14950,7 +14950,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>0-4, 5-11, 11-17</t>
+          <t>0-4, 11-17, 5-11</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -15327,7 +15327,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>0-4, 5-11, 11-17</t>
+          <t>0-4, 11-17, 5-11</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -17421,7 +17421,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>0-4, Caring responsibilities for an adult, 11-17</t>
+          <t>0-4, 11-17, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -17606,7 +17606,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>5-11, Caring responsibilities for an adult, 11-17</t>
+          <t>11-17, 5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -20228,7 +20228,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>0-4, 5-11, Caring responsibilities for an adult, 11-17</t>
+          <t>0-4, 11-17, 5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -21322,7 +21322,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>5-11, Caring responsibilities for an adult, 11-17</t>
+          <t>11-17, 5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -21591,7 +21591,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>0-4, 5-11, 11-17</t>
+          <t>0-4, 11-17, 5-11</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -21689,7 +21689,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>0-4, 5-11, 11-17, Caring responsibilities for an adult</t>
+          <t>0-4, 11-17, 5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -23330,7 +23330,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Caring responsibilities for an adult, 11-17</t>
+          <t>11-17, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -23692,7 +23692,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>0-4, 5-11, Caring responsibilities for an adult, 11-17</t>
+          <t>0-4, 11-17, 5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -23876,7 +23876,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>5-11, 11-17</t>
+          <t>11-17, 5-11</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -24058,7 +24058,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>0-4, 5-11, 11-17, Caring responsibilities for an adult</t>
+          <t>0-4, 11-17, 5-11, Caring responsibilities for an adult</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -24821,7 +24821,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>0-4, 5-11, 11-17</t>
+          <t>0-4, 11-17, 5-11</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -50924,7 +50924,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>work experience, qualifications or skills, business plan for self-employment, business plan for self-employment</t>
+          <t>business plan for self-employment, business plan for self-employment, qualifications or skills, work experience</t>
         </is>
       </c>
     </row>
@@ -50939,7 +50939,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>training course, Internship, business plan for self-employment, work experience, another specified activity</t>
+          <t>Internship, another specified activity, business plan for self-employment, training course, work experience</t>
         </is>
       </c>
     </row>
@@ -50954,7 +50954,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>training course, business plan for self-employment, work experience</t>
+          <t>business plan for self-employment, training course, work experience</t>
         </is>
       </c>
     </row>
@@ -50969,7 +50969,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>training course, employability, training course, qualifications or skills, qualifications or skills</t>
+          <t>employability, qualifications or skills, qualifications or skills, training course, training course</t>
         </is>
       </c>
     </row>
@@ -50984,7 +50984,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>business plan for self-employment, business plan for self-employment, qualifications or skills, business plan for self-employment, training course</t>
+          <t>business plan for self-employment, business plan for self-employment, business plan for self-employment, qualifications or skills, training course</t>
         </is>
       </c>
     </row>
@@ -50999,7 +50999,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>sector-specific language training, Volunteering, another specified activity, business plan for self-employment, sector-specific language training</t>
+          <t>Volunteering, another specified activity, business plan for self-employment, sector-specific language training, sector-specific language training</t>
         </is>
       </c>
     </row>
@@ -51014,7 +51014,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Volunteering, mentoring and/or coaching, mentoring and/or coaching, Internship</t>
+          <t>Internship, Volunteering, mentoring and/or coaching, mentoring and/or coaching</t>
         </is>
       </c>
     </row>
@@ -51029,7 +51029,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>sector-specific language training, Internship, business plan for self-employment, training course</t>
+          <t>Internship, business plan for self-employment, sector-specific language training, training course</t>
         </is>
       </c>
     </row>
@@ -51044,7 +51044,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>work experience, business plan for self-employment, another specified activity, sector-specific language training, business plan for self-employment</t>
+          <t>another specified activity, business plan for self-employment, business plan for self-employment, sector-specific language training, work experience</t>
         </is>
       </c>
     </row>
@@ -51059,7 +51059,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>mentoring and/or coaching, another specified activity, mentoring and/or coaching, qualifications or skills</t>
+          <t>another specified activity, mentoring and/or coaching, mentoring and/or coaching, qualifications or skills</t>
         </is>
       </c>
     </row>
@@ -51089,7 +51089,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Volunteering, sector-specific language training, Internship, qualifications or skills</t>
+          <t>Internship, Volunteering, qualifications or skills, sector-specific language training</t>
         </is>
       </c>
     </row>
@@ -51104,7 +51104,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>mentoring and/or coaching, Internship, business plan for self-employment</t>
+          <t>Internship, business plan for self-employment, mentoring and/or coaching</t>
         </is>
       </c>
     </row>
@@ -51134,7 +51134,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>qualifications or skills, work experience, qualifications or skills, training course, training course</t>
+          <t>qualifications or skills, qualifications or skills, training course, training course, work experience</t>
         </is>
       </c>
     </row>
@@ -51149,7 +51149,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>qualifications or skills, sector-specific language training, qualifications or skills, business plan for self-employment, employability</t>
+          <t>business plan for self-employment, employability, qualifications or skills, qualifications or skills, sector-specific language training</t>
         </is>
       </c>
     </row>
@@ -51164,7 +51164,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Volunteering, qualifications or skills, Registered business for self-employment, training course</t>
+          <t>Registered business for self-employment, Volunteering, qualifications or skills, training course</t>
         </is>
       </c>
     </row>
@@ -51179,7 +51179,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Internship, work experience, Registered business for self-employment</t>
+          <t>Internship, Registered business for self-employment, work experience</t>
         </is>
       </c>
     </row>
@@ -51194,7 +51194,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>employability, mentoring and/or coaching, qualifications or skills, another specified activity, Internship</t>
+          <t>Internship, another specified activity, employability, mentoring and/or coaching, qualifications or skills</t>
         </is>
       </c>
     </row>
@@ -51239,7 +51239,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>employability, qualifications or skills, employability</t>
+          <t>employability, employability, qualifications or skills</t>
         </is>
       </c>
     </row>
@@ -51254,7 +51254,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>qualifications or skills, mentoring and/or coaching, sector-specific language training</t>
+          <t>mentoring and/or coaching, qualifications or skills, sector-specific language training</t>
         </is>
       </c>
     </row>
@@ -51269,7 +51269,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>work experience, work experience, work experience, qualifications or skills</t>
+          <t>qualifications or skills, work experience, work experience, work experience</t>
         </is>
       </c>
     </row>
@@ -51284,7 +51284,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Internship, Registered business for self-employment, sector-specific language training, Registered business for self-employment</t>
+          <t>Internship, Registered business for self-employment, Registered business for self-employment, sector-specific language training</t>
         </is>
       </c>
     </row>
@@ -51299,7 +51299,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>qualifications or skills, mentoring and/or coaching, Internship, sector-specific language training</t>
+          <t>Internship, mentoring and/or coaching, qualifications or skills, sector-specific language training</t>
         </is>
       </c>
     </row>
@@ -51314,7 +51314,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>sector-specific language training, sector-specific language training, another specified activity, Internship</t>
+          <t>Internship, another specified activity, sector-specific language training, sector-specific language training</t>
         </is>
       </c>
     </row>
@@ -51329,7 +51329,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>work experience, business plan for self-employment, work experience, work experience, another specified activity</t>
+          <t>another specified activity, business plan for self-employment, work experience, work experience, work experience</t>
         </is>
       </c>
     </row>
@@ -51344,7 +51344,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>mentoring and/or coaching, sector-specific language training, mentoring and/or coaching</t>
+          <t>mentoring and/or coaching, mentoring and/or coaching, sector-specific language training</t>
         </is>
       </c>
     </row>
@@ -51359,7 +51359,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>mentoring and/or coaching, qualifications or skills, Volunteering</t>
+          <t>Volunteering, mentoring and/or coaching, qualifications or skills</t>
         </is>
       </c>
     </row>
@@ -51374,7 +51374,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>business plan for self-employment, sector-specific language training, Internship, Volunteering, qualifications or skills</t>
+          <t>Internship, Volunteering, business plan for self-employment, qualifications or skills, sector-specific language training</t>
         </is>
       </c>
     </row>
@@ -51419,7 +51419,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Internship, qualifications or skills, training course, business plan for self-employment</t>
+          <t>Internship, business plan for self-employment, qualifications or skills, training course</t>
         </is>
       </c>
     </row>
@@ -51434,7 +51434,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>training course, work experience, another specified activity, business plan for self-employment, another specified activity</t>
+          <t>another specified activity, another specified activity, business plan for self-employment, training course, work experience</t>
         </is>
       </c>
     </row>
@@ -51449,7 +51449,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>another specified activity, Internship, qualifications or skills, employability, business plan for self-employment</t>
+          <t>Internship, another specified activity, business plan for self-employment, employability, qualifications or skills</t>
         </is>
       </c>
     </row>
@@ -51479,7 +51479,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>employability, Registered business for self-employment, business plan for self-employment</t>
+          <t>Registered business for self-employment, business plan for self-employment, employability</t>
         </is>
       </c>
     </row>
@@ -51494,7 +51494,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>employability, another specified activity, work experience, Internship, Volunteering</t>
+          <t>Internship, Volunteering, another specified activity, employability, work experience</t>
         </is>
       </c>
     </row>
@@ -51509,7 +51509,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Internship, Internship, qualifications or skills, another specified activity, qualifications or skills</t>
+          <t>Internship, Internship, another specified activity, qualifications or skills, qualifications or skills</t>
         </is>
       </c>
     </row>
@@ -51524,7 +51524,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>qualifications or skills, Volunteering, training course, another specified activity</t>
+          <t>Volunteering, another specified activity, qualifications or skills, training course</t>
         </is>
       </c>
     </row>
@@ -51539,7 +51539,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>another specified activity, Internship, Volunteering, another specified activity, work experience</t>
+          <t>Internship, Volunteering, another specified activity, another specified activity, work experience</t>
         </is>
       </c>
     </row>
@@ -51554,7 +51554,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>qualifications or skills, Volunteering, qualifications or skills, another specified activity</t>
+          <t>Volunteering, another specified activity, qualifications or skills, qualifications or skills</t>
         </is>
       </c>
     </row>
@@ -51569,7 +51569,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>sector-specific language training, another specified activity, business plan for self-employment, employability, training course</t>
+          <t>another specified activity, business plan for self-employment, employability, sector-specific language training, training course</t>
         </is>
       </c>
     </row>
@@ -51584,7 +51584,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>qualifications or skills, mentoring and/or coaching, another specified activity</t>
+          <t>another specified activity, mentoring and/or coaching, qualifications or skills</t>
         </is>
       </c>
     </row>
@@ -51599,7 +51599,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>business plan for self-employment, business plan for self-employment, Volunteering, Internship</t>
+          <t>Internship, Volunteering, business plan for self-employment, business plan for self-employment</t>
         </is>
       </c>
     </row>
@@ -51629,7 +51629,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>work experience, Volunteering, business plan for self-employment, mentoring and/or coaching</t>
+          <t>Volunteering, business plan for self-employment, mentoring and/or coaching, work experience</t>
         </is>
       </c>
     </row>
@@ -51644,7 +51644,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>mentoring and/or coaching, Internship, training course, Registered business for self-employment, Internship</t>
+          <t>Internship, Internship, Registered business for self-employment, mentoring and/or coaching, training course</t>
         </is>
       </c>
     </row>
@@ -51659,7 +51659,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>qualifications or skills, mentoring and/or coaching, another specified activity, qualifications or skills</t>
+          <t>another specified activity, mentoring and/or coaching, qualifications or skills, qualifications or skills</t>
         </is>
       </c>
     </row>
@@ -51674,7 +51674,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Registered business for self-employment, Internship, Internship, Volunteering, work experience</t>
+          <t>Internship, Internship, Registered business for self-employment, Volunteering, work experience</t>
         </is>
       </c>
     </row>
@@ -51689,7 +51689,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Volunteering, another specified activity, Volunteering, sector-specific language training</t>
+          <t>Volunteering, Volunteering, another specified activity, sector-specific language training</t>
         </is>
       </c>
     </row>
@@ -51719,7 +51719,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>work experience, business plan for self-employment, employability, Internship</t>
+          <t>Internship, business plan for self-employment, employability, work experience</t>
         </is>
       </c>
     </row>
@@ -51734,7 +51734,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Volunteering, employability, mentoring and/or coaching, Volunteering, Volunteering</t>
+          <t>Volunteering, Volunteering, Volunteering, employability, mentoring and/or coaching</t>
         </is>
       </c>
     </row>
@@ -51764,7 +51764,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>mentoring and/or coaching, another specified activity, training course, employability</t>
+          <t>another specified activity, employability, mentoring and/or coaching, training course</t>
         </is>
       </c>
     </row>
@@ -51779,7 +51779,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>employability, work experience, another specified activity</t>
+          <t>another specified activity, employability, work experience</t>
         </is>
       </c>
     </row>
@@ -51794,7 +51794,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>business plan for self-employment, qualifications or skills, business plan for self-employment</t>
+          <t>business plan for self-employment, business plan for self-employment, qualifications or skills</t>
         </is>
       </c>
     </row>
@@ -51809,7 +51809,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>qualifications or skills, training course, another specified activity</t>
+          <t>another specified activity, qualifications or skills, training course</t>
         </is>
       </c>
     </row>
@@ -51824,7 +51824,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>work experience, Volunteering, employability</t>
+          <t>Volunteering, employability, work experience</t>
         </is>
       </c>
     </row>
@@ -51839,7 +51839,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>another specified activity, Volunteering, mentoring and/or coaching, another specified activity</t>
+          <t>Volunteering, another specified activity, another specified activity, mentoring and/or coaching</t>
         </is>
       </c>
     </row>
@@ -51854,7 +51854,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>mentoring and/or coaching, sector-specific language training, mentoring and/or coaching, mentoring and/or coaching, mentoring and/or coaching</t>
+          <t>mentoring and/or coaching, mentoring and/or coaching, mentoring and/or coaching, mentoring and/or coaching, sector-specific language training</t>
         </is>
       </c>
     </row>
@@ -51869,7 +51869,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>mentoring and/or coaching, mentoring and/or coaching, business plan for self-employment, Registered business for self-employment</t>
+          <t>Registered business for self-employment, business plan for self-employment, mentoring and/or coaching, mentoring and/or coaching</t>
         </is>
       </c>
     </row>
@@ -51884,7 +51884,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>employability, Volunteering, another specified activity, qualifications or skills, training course</t>
+          <t>Volunteering, another specified activity, employability, qualifications or skills, training course</t>
         </is>
       </c>
     </row>
@@ -51899,7 +51899,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>sector-specific language training, training course, employability</t>
+          <t>employability, sector-specific language training, training course</t>
         </is>
       </c>
     </row>
@@ -51914,7 +51914,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Registered business for self-employment, mentoring and/or coaching, employability, another specified activity, employability</t>
+          <t>Registered business for self-employment, another specified activity, employability, employability, mentoring and/or coaching</t>
         </is>
       </c>
     </row>
@@ -51929,7 +51929,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>qualifications or skills, training course, Registered business for self-employment</t>
+          <t>Registered business for self-employment, qualifications or skills, training course</t>
         </is>
       </c>
     </row>
@@ -51944,7 +51944,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>another specified activity, qualifications or skills, Internship, training course</t>
+          <t>Internship, another specified activity, qualifications or skills, training course</t>
         </is>
       </c>
     </row>
@@ -51959,7 +51959,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Volunteering, sector-specific language training, Internship, work experience, sector-specific language training</t>
+          <t>Internship, Volunteering, sector-specific language training, sector-specific language training, work experience</t>
         </is>
       </c>
     </row>
@@ -51974,7 +51974,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>training course, Internship, work experience, another specified activity, qualifications or skills</t>
+          <t>Internship, another specified activity, qualifications or skills, training course, work experience</t>
         </is>
       </c>
     </row>
@@ -51989,7 +51989,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>training course, work experience, employability, business plan for self-employment</t>
+          <t>business plan for self-employment, employability, training course, work experience</t>
         </is>
       </c>
     </row>
@@ -52004,7 +52004,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>employability, work experience, mentoring and/or coaching, mentoring and/or coaching</t>
+          <t>employability, mentoring and/or coaching, mentoring and/or coaching, work experience</t>
         </is>
       </c>
     </row>
@@ -52019,7 +52019,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>qualifications or skills, Internship, work experience, work experience</t>
+          <t>Internship, qualifications or skills, work experience, work experience</t>
         </is>
       </c>
     </row>
@@ -52034,7 +52034,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Registered business for self-employment, Internship, Internship, mentoring and/or coaching, Volunteering</t>
+          <t>Internship, Internship, Registered business for self-employment, Volunteering, mentoring and/or coaching</t>
         </is>
       </c>
     </row>
@@ -52049,7 +52049,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Internship, work experience, another specified activity, qualifications or skills</t>
+          <t>Internship, another specified activity, qualifications or skills, work experience</t>
         </is>
       </c>
     </row>
@@ -52064,7 +52064,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>mentoring and/or coaching, qualifications or skills, Volunteering, training course</t>
+          <t>Volunteering, mentoring and/or coaching, qualifications or skills, training course</t>
         </is>
       </c>
     </row>
@@ -52079,7 +52079,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>training course, work experience, qualifications or skills, sector-specific language training, employability</t>
+          <t>employability, qualifications or skills, sector-specific language training, training course, work experience</t>
         </is>
       </c>
     </row>
@@ -52094,7 +52094,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>training course, work experience, sector-specific language training</t>
+          <t>sector-specific language training, training course, work experience</t>
         </is>
       </c>
     </row>
@@ -52109,7 +52109,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>mentoring and/or coaching, employability, Volunteering, mentoring and/or coaching, qualifications or skills</t>
+          <t>Volunteering, employability, mentoring and/or coaching, mentoring and/or coaching, qualifications or skills</t>
         </is>
       </c>
     </row>
@@ -52124,7 +52124,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Internship, mentoring and/or coaching, Internship</t>
+          <t>Internship, Internship, mentoring and/or coaching</t>
         </is>
       </c>
     </row>
@@ -52139,7 +52139,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>employability, work experience, qualifications or skills, sector-specific language training</t>
+          <t>employability, qualifications or skills, sector-specific language training, work experience</t>
         </is>
       </c>
     </row>
@@ -52154,7 +52154,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>employability, qualifications or skills, business plan for self-employment, mentoring and/or coaching</t>
+          <t>business plan for self-employment, employability, mentoring and/or coaching, qualifications or skills</t>
         </is>
       </c>
     </row>
@@ -52169,7 +52169,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>qualifications or skills, sector-specific language training, mentoring and/or coaching, Registered business for self-employment</t>
+          <t>Registered business for self-employment, mentoring and/or coaching, qualifications or skills, sector-specific language training</t>
         </is>
       </c>
     </row>
@@ -52184,7 +52184,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Registered business for self-employment, work experience, mentoring and/or coaching, training course, training course</t>
+          <t>Registered business for self-employment, mentoring and/or coaching, training course, training course, work experience</t>
         </is>
       </c>
     </row>
@@ -52199,7 +52199,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>training course, work experience, mentoring and/or coaching, another specified activity</t>
+          <t>another specified activity, mentoring and/or coaching, training course, work experience</t>
         </is>
       </c>
     </row>
@@ -52214,7 +52214,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>employability, Internship, training course</t>
+          <t>Internship, employability, training course</t>
         </is>
       </c>
     </row>
@@ -52229,7 +52229,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>business plan for self-employment, work experience, sector-specific language training, qualifications or skills, training course</t>
+          <t>business plan for self-employment, qualifications or skills, sector-specific language training, training course, work experience</t>
         </is>
       </c>
     </row>
@@ -52244,7 +52244,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>training course, Registered business for self-employment, qualifications or skills, sector-specific language training, Registered business for self-employment</t>
+          <t>Registered business for self-employment, Registered business for self-employment, qualifications or skills, sector-specific language training, training course</t>
         </is>
       </c>
     </row>
@@ -52259,7 +52259,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>qualifications or skills, employability, Registered business for self-employment</t>
+          <t>Registered business for self-employment, employability, qualifications or skills</t>
         </is>
       </c>
     </row>
@@ -52274,7 +52274,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>mentoring and/or coaching, work experience, Registered business for self-employment, Registered business for self-employment, qualifications or skills</t>
+          <t>Registered business for self-employment, Registered business for self-employment, mentoring and/or coaching, qualifications or skills, work experience</t>
         </is>
       </c>
     </row>
@@ -52289,7 +52289,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Registered business for self-employment, training course, qualifications or skills</t>
+          <t>Registered business for self-employment, qualifications or skills, training course</t>
         </is>
       </c>
     </row>
@@ -52304,7 +52304,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Internship, Volunteering, Volunteering, sector-specific language training, Registered business for self-employment</t>
+          <t>Internship, Registered business for self-employment, Volunteering, Volunteering, sector-specific language training</t>
         </is>
       </c>
     </row>
@@ -52319,7 +52319,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Internship, Registered business for self-employment, business plan for self-employment, Volunteering, employability</t>
+          <t>Internship, Registered business for self-employment, Volunteering, business plan for self-employment, employability</t>
         </is>
       </c>
     </row>
@@ -52334,7 +52334,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>employability, Volunteering, qualifications or skills, business plan for self-employment</t>
+          <t>Volunteering, business plan for self-employment, employability, qualifications or skills</t>
         </is>
       </c>
     </row>
@@ -52364,7 +52364,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>mentoring and/or coaching, Volunteering, sector-specific language training, Volunteering, qualifications or skills</t>
+          <t>Volunteering, Volunteering, mentoring and/or coaching, qualifications or skills, sector-specific language training</t>
         </is>
       </c>
     </row>
@@ -52379,7 +52379,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>business plan for self-employment, another specified activity, qualifications or skills, Volunteering, mentoring and/or coaching</t>
+          <t>Volunteering, another specified activity, business plan for self-employment, mentoring and/or coaching, qualifications or skills</t>
         </is>
       </c>
     </row>
@@ -52394,7 +52394,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>training course, training course, sector-specific language training</t>
+          <t>sector-specific language training, training course, training course</t>
         </is>
       </c>
     </row>
@@ -52409,7 +52409,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Volunteering, Volunteering, Registered business for self-employment, another specified activity</t>
+          <t>Registered business for self-employment, Volunteering, Volunteering, another specified activity</t>
         </is>
       </c>
     </row>
@@ -52424,7 +52424,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>employability, another specified activity, sector-specific language training</t>
+          <t>another specified activity, employability, sector-specific language training</t>
         </is>
       </c>
     </row>
@@ -52439,7 +52439,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>employability, work experience, Volunteering, Volunteering, training course</t>
+          <t>Volunteering, Volunteering, employability, training course, work experience</t>
         </is>
       </c>
     </row>
@@ -52454,7 +52454,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>training course, qualifications or skills, training course, employability</t>
+          <t>employability, qualifications or skills, training course, training course</t>
         </is>
       </c>
     </row>
@@ -52469,7 +52469,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Volunteering, Volunteering, work experience, sector-specific language training</t>
+          <t>Volunteering, Volunteering, sector-specific language training, work experience</t>
         </is>
       </c>
     </row>
@@ -52484,7 +52484,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Internship, business plan for self-employment, Volunteering</t>
+          <t>Internship, Volunteering, business plan for self-employment</t>
         </is>
       </c>
     </row>
@@ -52499,7 +52499,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>sector-specific language training, Registered business for self-employment, another specified activity, business plan for self-employment, Registered business for self-employment</t>
+          <t>Registered business for self-employment, Registered business for self-employment, another specified activity, business plan for self-employment, sector-specific language training</t>
         </is>
       </c>
     </row>
@@ -52514,7 +52514,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>sector-specific language training, another specified activity, mentoring and/or coaching, sector-specific language training, training course</t>
+          <t>another specified activity, mentoring and/or coaching, sector-specific language training, sector-specific language training, training course</t>
         </is>
       </c>
     </row>
@@ -52529,7 +52529,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Internship, work experience, sector-specific language training, mentoring and/or coaching, sector-specific language training</t>
+          <t>Internship, mentoring and/or coaching, sector-specific language training, sector-specific language training, work experience</t>
         </is>
       </c>
     </row>
@@ -52544,7 +52544,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>sector-specific language training, sector-specific language training, another specified activity, work experience, Registered business for self-employment</t>
+          <t>Registered business for self-employment, another specified activity, sector-specific language training, sector-specific language training, work experience</t>
         </is>
       </c>
     </row>
@@ -52559,7 +52559,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>training course, Internship, business plan for self-employment</t>
+          <t>Internship, business plan for self-employment, training course</t>
         </is>
       </c>
     </row>
@@ -52574,7 +52574,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>another specified activity, Internship, work experience</t>
+          <t>Internship, another specified activity, work experience</t>
         </is>
       </c>
     </row>
@@ -52589,7 +52589,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>business plan for self-employment, training course, business plan for self-employment, sector-specific language training</t>
+          <t>business plan for self-employment, business plan for self-employment, sector-specific language training, training course</t>
         </is>
       </c>
     </row>
@@ -52604,7 +52604,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>qualifications or skills, training course, training course, mentoring and/or coaching, another specified activity</t>
+          <t>another specified activity, mentoring and/or coaching, qualifications or skills, training course, training course</t>
         </is>
       </c>
     </row>
@@ -52619,7 +52619,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Registered business for self-employment, training course, qualifications or skills, another specified activity</t>
+          <t>Registered business for self-employment, another specified activity, qualifications or skills, training course</t>
         </is>
       </c>
     </row>
@@ -52634,7 +52634,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Registered business for self-employment, qualifications or skills, Volunteering, business plan for self-employment</t>
+          <t>Registered business for self-employment, Volunteering, business plan for self-employment, qualifications or skills</t>
         </is>
       </c>
     </row>
@@ -52664,7 +52664,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>employability, employability, Volunteering</t>
+          <t>Volunteering, employability, employability</t>
         </is>
       </c>
     </row>
@@ -52679,7 +52679,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>training course, Volunteering, another specified activity, training course</t>
+          <t>Volunteering, another specified activity, training course, training course</t>
         </is>
       </c>
     </row>
@@ -52694,7 +52694,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Internship, qualifications or skills, sector-specific language training, Registered business for self-employment, mentoring and/or coaching</t>
+          <t>Internship, Registered business for self-employment, mentoring and/or coaching, qualifications or skills, sector-specific language training</t>
         </is>
       </c>
     </row>
@@ -52709,7 +52709,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>business plan for self-employment, Volunteering, Registered business for self-employment, Volunteering, business plan for self-employment</t>
+          <t>Registered business for self-employment, Volunteering, Volunteering, business plan for self-employment, business plan for self-employment</t>
         </is>
       </c>
     </row>
@@ -52724,7 +52724,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Registered business for self-employment, training course, work experience, Volunteering</t>
+          <t>Registered business for self-employment, Volunteering, training course, work experience</t>
         </is>
       </c>
     </row>
@@ -52739,7 +52739,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>training course, business plan for self-employment, mentoring and/or coaching</t>
+          <t>business plan for self-employment, mentoring and/or coaching, training course</t>
         </is>
       </c>
     </row>
@@ -52769,7 +52769,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>mentoring and/or coaching, another specified activity, sector-specific language training, Internship</t>
+          <t>Internship, another specified activity, mentoring and/or coaching, sector-specific language training</t>
         </is>
       </c>
     </row>
@@ -52784,7 +52784,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Volunteering, qualifications or skills, employability, another specified activity, Registered business for self-employment</t>
+          <t>Registered business for self-employment, Volunteering, another specified activity, employability, qualifications or skills</t>
         </is>
       </c>
     </row>
@@ -52814,7 +52814,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>qualifications or skills, Volunteering, work experience, Volunteering, sector-specific language training</t>
+          <t>Volunteering, Volunteering, qualifications or skills, sector-specific language training, work experience</t>
         </is>
       </c>
     </row>
@@ -52829,7 +52829,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>sector-specific language training, training course, sector-specific language training, business plan for self-employment, Internship</t>
+          <t>Internship, business plan for self-employment, sector-specific language training, sector-specific language training, training course</t>
         </is>
       </c>
     </row>
@@ -52844,7 +52844,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Internship, work experience, Registered business for self-employment, mentoring and/or coaching, Registered business for self-employment</t>
+          <t>Internship, Registered business for self-employment, Registered business for self-employment, mentoring and/or coaching, work experience</t>
         </is>
       </c>
     </row>
@@ -52859,7 +52859,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>work experience, sector-specific language training, business plan for self-employment, business plan for self-employment, mentoring and/or coaching</t>
+          <t>business plan for self-employment, business plan for self-employment, mentoring and/or coaching, sector-specific language training, work experience</t>
         </is>
       </c>
     </row>
@@ -52874,7 +52874,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>business plan for self-employment, Volunteering, another specified activity, mentoring and/or coaching</t>
+          <t>Volunteering, another specified activity, business plan for self-employment, mentoring and/or coaching</t>
         </is>
       </c>
     </row>
@@ -52889,7 +52889,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>qualifications or skills, sector-specific language training, business plan for self-employment, employability</t>
+          <t>business plan for self-employment, employability, qualifications or skills, sector-specific language training</t>
         </is>
       </c>
     </row>
@@ -52904,7 +52904,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Internship, qualifications or skills, business plan for self-employment, Internship</t>
+          <t>Internship, Internship, business plan for self-employment, qualifications or skills</t>
         </is>
       </c>
     </row>
@@ -52919,7 +52919,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>qualifications or skills, Internship, employability, qualifications or skills</t>
+          <t>Internship, employability, qualifications or skills, qualifications or skills</t>
         </is>
       </c>
     </row>
@@ -52949,7 +52949,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>mentoring and/or coaching, business plan for self-employment, Internship, work experience, Volunteering</t>
+          <t>Internship, Volunteering, business plan for self-employment, mentoring and/or coaching, work experience</t>
         </is>
       </c>
     </row>
